--- a/matching/Matching-mean-lab.xlsx
+++ b/matching/Matching-mean-lab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimst\My Drive\PhD\Thesis\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimst\My Drive\PhD\Thesis\Results\matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4E641-B20B-43DA-8FD4-3C5DBD372421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A20FE-F979-46E6-99D1-21D3158411EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="28">
   <si>
     <t>Drugs</t>
   </si>
@@ -80,13 +80,37 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values.</t>
-  </si>
-  <si>
-    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values.</t>
-  </si>
-  <si>
-    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values.</t>
+    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values  (Original - where continuous variables use their original values, and concomitant drugs are measured as days of administration.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values (Binary -where continuous variables use their original values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Simethicone separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values  (Normalized - where continuous variables use normalized values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Multilayer Perceptron</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values   (Original - where continuous variables use their original values, and concomitant drugs are measured as days of administration.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values  (Binary -where continuous variables use their original values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Prochlorperazine separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values (Normalized - where continuous variables use normalized values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values (Original - where continuous variables use their original values, and concomitant drugs are measured as days of administration.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values (Binary -where continuous variables use their original values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t>Best machine learning models for propensity score matching in Lactulose separated into the two confounder sets of the literature review and clinician, where laboratory tests represented as mean values (Normalized - where continuous variables use normalized values, and concomitant drugs are binary for take it or not.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient Boosting	</t>
   </si>
 </sst>
 </file>
@@ -407,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,7 +444,7 @@
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,6 +534,13 @@
       <c r="E4">
         <v>0.1</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -527,6 +558,13 @@
       <c r="E5">
         <v>0.1</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -596,9 +634,391 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0.15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0.4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:M3"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:M5"/>
+    <mergeCell ref="G11:M15"/>
+    <mergeCell ref="G21:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -606,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083AD2ED-9A83-4C90-904C-D334FAD636B3}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +1039,7 @@
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -709,6 +1129,13 @@
       <c r="E4">
         <v>0.1</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -726,6 +1153,13 @@
       <c r="E5">
         <v>0.1</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -795,9 +1229,391 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:M3"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:M5"/>
+    <mergeCell ref="G11:M15"/>
+    <mergeCell ref="G21:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -805,20 +1621,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884D1D0-4349-4652-BE5F-FE87046B8F8F}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -908,6 +1724,13 @@
       <c r="E4">
         <v>0.1</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -925,6 +1748,13 @@
       <c r="E5">
         <v>0.1</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -994,9 +1824,391 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0.15</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:N3"/>
+  <mergeCells count="3">
+    <mergeCell ref="H1:N5"/>
+    <mergeCell ref="H11:N15"/>
+    <mergeCell ref="H21:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
